--- a/forms/Form-1RC.xlsx
+++ b/forms/Form-1RC.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\Data dissemination\iotc-reference-data\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D62D137-7EB5-476B-99F2-5DE3D3264D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1929B94D-EEF9-4E5C-89E2-B25E5B6B9153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="5O4euoXp3wZfikUhVbwGMfw3acpHwF0QGHqLGhqkSE4QfnoccY7VPEsDDzzEBP5NB49UT+XbcZf1lZQTbDpLFA==" workbookSaltValue="DtEOIJKZ9UKP8oWrD+QpRw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Focal point</t>
   </si>
@@ -114,9 +114,6 @@
     <t>IOTC form 1-RC | metadata</t>
   </si>
   <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
     <t>Retain reason</t>
   </si>
   <si>
@@ -130,6 +127,12 @@
   </si>
   <si>
     <t>Reporting entity</t>
+  </si>
+  <si>
+    <t>1.0.0-legacy</t>
+  </si>
+  <si>
+    <t>Target species</t>
   </si>
 </sst>
 </file>
@@ -672,6 +675,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -725,9 +731,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1046,7 +1049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1062,24 +1065,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="60"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="60"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="62"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="63"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
@@ -1094,7 +1097,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H4" s="4"/>
     </row>
@@ -1129,15 +1132,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="56"/>
+      <c r="D8" s="57"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="56" t="s">
+      <c r="F8" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="56"/>
+      <c r="G8" s="57"/>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1249,7 +1252,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="40"/>
       <c r="E19" s="6"/>
@@ -1308,11 +1311,11 @@
     </row>
     <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="55"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="56"/>
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1329,7 +1332,7 @@
       <c r="D27" s="22"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="thyWX1bfy+UgrSI7XgCD4H9yKsmE+fYKQl6oAemrEqVvUb2IpA3GBuGcKIhNPocRNd/hDF5aYxnEm69Q/w0UlQ==" saltValue="KNyaDApK61nAD/LfAZGZbg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+PLDGsYok1RhhiqzVx0t4rc1ipKYTAPUuNdVKfDNYN9d0pi7Q+nSOIdgXfRucA5QJSUwWGemn7pGKOnh9EH4qw==" saltValue="u9PVSKNhHVVwkkEs5mwO0g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
@@ -1352,10 +1355,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BH55"/>
+  <dimension ref="A1:BI55"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <pane xSplit="11" ySplit="5" topLeftCell="L6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
@@ -1365,217 +1368,220 @@
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="42" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="41" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="41" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="43" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="42" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="41" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="43" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="42" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="43" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="42"/>
-    <col min="12" max="59" width="9.140625" style="41"/>
-    <col min="60" max="60" width="9.140625" style="43"/>
-    <col min="61" max="16384" width="9.140625" style="24"/>
+    <col min="3" max="4" width="15.7109375" style="41" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="41" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="43" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="42" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="41" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="43" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="42" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="43" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="42"/>
+    <col min="13" max="60" width="9.140625" style="41"/>
+    <col min="61" max="61" width="9.140625" style="43"/>
+    <col min="62" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="57" t="s">
+    <row r="1" spans="1:61" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="58"/>
-      <c r="AO2" s="58"/>
-      <c r="AP2" s="58"/>
-      <c r="AQ2" s="58"/>
-      <c r="AR2" s="58"/>
-      <c r="AS2" s="58"/>
-      <c r="AT2" s="58"/>
-      <c r="AU2" s="58"/>
-      <c r="AV2" s="58"/>
-      <c r="AW2" s="58"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="58"/>
-      <c r="AZ2" s="58"/>
-      <c r="BA2" s="58"/>
-      <c r="BB2" s="58"/>
-      <c r="BC2" s="58"/>
-      <c r="BD2" s="58"/>
-      <c r="BE2" s="58"/>
-      <c r="BF2" s="58"/>
-      <c r="BG2" s="58"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="59"/>
+      <c r="AN2" s="59"/>
+      <c r="AO2" s="59"/>
+      <c r="AP2" s="59"/>
+      <c r="AQ2" s="59"/>
+      <c r="AR2" s="59"/>
+      <c r="AS2" s="59"/>
+      <c r="AT2" s="59"/>
+      <c r="AU2" s="59"/>
+      <c r="AV2" s="59"/>
+      <c r="AW2" s="59"/>
+      <c r="AX2" s="59"/>
+      <c r="AY2" s="59"/>
+      <c r="AZ2" s="59"/>
+      <c r="BA2" s="59"/>
+      <c r="BB2" s="59"/>
+      <c r="BC2" s="59"/>
+      <c r="BD2" s="59"/>
+      <c r="BE2" s="59"/>
+      <c r="BF2" s="59"/>
+      <c r="BG2" s="59"/>
       <c r="BH2" s="59"/>
-    </row>
-    <row r="3" spans="1:60" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BI2" s="60"/>
+    </row>
+    <row r="3" spans="1:61" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="61"/>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="61"/>
-      <c r="AC3" s="61"/>
-      <c r="AD3" s="61"/>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="61"/>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="61"/>
-      <c r="AI3" s="61"/>
-      <c r="AJ3" s="61"/>
-      <c r="AK3" s="61"/>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="61"/>
-      <c r="AN3" s="61"/>
-      <c r="AO3" s="61"/>
-      <c r="AP3" s="61"/>
-      <c r="AQ3" s="61"/>
-      <c r="AR3" s="61"/>
-      <c r="AS3" s="61"/>
-      <c r="AT3" s="61"/>
-      <c r="AU3" s="61"/>
-      <c r="AV3" s="61"/>
-      <c r="AW3" s="61"/>
-      <c r="AX3" s="61"/>
-      <c r="AY3" s="61"/>
-      <c r="AZ3" s="61"/>
-      <c r="BA3" s="61"/>
-      <c r="BB3" s="61"/>
-      <c r="BC3" s="61"/>
-      <c r="BD3" s="61"/>
-      <c r="BE3" s="61"/>
-      <c r="BF3" s="61"/>
-      <c r="BG3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="62"/>
+      <c r="AG3" s="62"/>
+      <c r="AH3" s="62"/>
+      <c r="AI3" s="62"/>
+      <c r="AJ3" s="62"/>
+      <c r="AK3" s="62"/>
+      <c r="AL3" s="62"/>
+      <c r="AM3" s="62"/>
+      <c r="AN3" s="62"/>
+      <c r="AO3" s="62"/>
+      <c r="AP3" s="62"/>
+      <c r="AQ3" s="62"/>
+      <c r="AR3" s="62"/>
+      <c r="AS3" s="62"/>
+      <c r="AT3" s="62"/>
+      <c r="AU3" s="62"/>
+      <c r="AV3" s="62"/>
+      <c r="AW3" s="62"/>
+      <c r="AX3" s="62"/>
+      <c r="AY3" s="62"/>
+      <c r="AZ3" s="62"/>
+      <c r="BA3" s="62"/>
+      <c r="BB3" s="62"/>
+      <c r="BC3" s="62"/>
+      <c r="BD3" s="62"/>
+      <c r="BE3" s="62"/>
+      <c r="BF3" s="62"/>
+      <c r="BG3" s="62"/>
       <c r="BH3" s="62"/>
-    </row>
-    <row r="4" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BI3" s="63"/>
+    </row>
+    <row r="4" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37"/>
-      <c r="B4" s="63" t="s">
-        <v>28</v>
+      <c r="B4" s="64" t="s">
+        <v>27</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="65"/>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="66"/>
+      <c r="G4" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="64"/>
       <c r="H4" s="65"/>
-      <c r="I4" s="63" t="s">
+      <c r="I4" s="66"/>
+      <c r="J4" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="65"/>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="66"/>
+      <c r="L4" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="67"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="67"/>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="67"/>
-      <c r="Z4" s="67"/>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="67"/>
-      <c r="AC4" s="67"/>
-      <c r="AD4" s="67"/>
-      <c r="AE4" s="67"/>
-      <c r="AF4" s="67"/>
-      <c r="AG4" s="67"/>
-      <c r="AH4" s="67"/>
-      <c r="AI4" s="67"/>
-      <c r="AJ4" s="67"/>
-      <c r="AK4" s="67"/>
-      <c r="AL4" s="67"/>
-      <c r="AM4" s="67"/>
-      <c r="AN4" s="67"/>
-      <c r="AO4" s="67"/>
-      <c r="AP4" s="67"/>
-      <c r="AQ4" s="67"/>
-      <c r="AR4" s="67"/>
-      <c r="AS4" s="67"/>
-      <c r="AT4" s="67"/>
-      <c r="AU4" s="67"/>
-      <c r="AV4" s="67"/>
-      <c r="AW4" s="67"/>
-      <c r="AX4" s="67"/>
-      <c r="AY4" s="67"/>
-      <c r="AZ4" s="67"/>
-      <c r="BA4" s="67"/>
-      <c r="BB4" s="67"/>
-      <c r="BC4" s="67"/>
-      <c r="BD4" s="67"/>
-      <c r="BE4" s="67"/>
-      <c r="BF4" s="67"/>
-      <c r="BG4" s="67"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="68"/>
+      <c r="AE4" s="68"/>
+      <c r="AF4" s="68"/>
+      <c r="AG4" s="68"/>
+      <c r="AH4" s="68"/>
+      <c r="AI4" s="68"/>
+      <c r="AJ4" s="68"/>
+      <c r="AK4" s="68"/>
+      <c r="AL4" s="68"/>
+      <c r="AM4" s="68"/>
+      <c r="AN4" s="68"/>
+      <c r="AO4" s="68"/>
+      <c r="AP4" s="68"/>
+      <c r="AQ4" s="68"/>
+      <c r="AR4" s="68"/>
+      <c r="AS4" s="68"/>
+      <c r="AT4" s="68"/>
+      <c r="AU4" s="68"/>
+      <c r="AV4" s="68"/>
+      <c r="AW4" s="68"/>
+      <c r="AX4" s="68"/>
+      <c r="AY4" s="68"/>
+      <c r="AZ4" s="68"/>
+      <c r="BA4" s="68"/>
+      <c r="BB4" s="68"/>
+      <c r="BC4" s="68"/>
+      <c r="BD4" s="68"/>
+      <c r="BE4" s="68"/>
+      <c r="BF4" s="68"/>
+      <c r="BG4" s="68"/>
       <c r="BH4" s="68"/>
-    </row>
-    <row r="5" spans="1:60" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BI4" s="69"/>
+    </row>
+    <row r="5" spans="1:61" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="38" t="s">
         <v>14</v>
       </c>
@@ -1583,28 +1589,30 @@
         <v>8</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="44"/>
-      <c r="L5" s="25"/>
+      <c r="L5" s="44"/>
       <c r="M5" s="25"/>
       <c r="N5" s="25"/>
       <c r="O5" s="25"/>
@@ -1652,20 +1660,21 @@
       <c r="BE5" s="25"/>
       <c r="BF5" s="25"/>
       <c r="BG5" s="25"/>
-      <c r="BH5" s="26"/>
-    </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BH5" s="25"/>
+      <c r="BI5" s="26"/>
+    </row>
+    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B6" s="27"/>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="30"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="45"/>
       <c r="M6" s="30"/>
       <c r="N6" s="30"/>
       <c r="O6" s="30"/>
@@ -1713,20 +1722,21 @@
       <c r="BE6" s="30"/>
       <c r="BF6" s="30"/>
       <c r="BG6" s="30"/>
-      <c r="BH6" s="31"/>
-    </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BH6" s="30"/>
+      <c r="BI6" s="31"/>
+    </row>
+    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B7" s="32"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="35"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="46"/>
       <c r="M7" s="35"/>
       <c r="N7" s="35"/>
       <c r="O7" s="35"/>
@@ -1774,20 +1784,21 @@
       <c r="BE7" s="35"/>
       <c r="BF7" s="35"/>
       <c r="BG7" s="35"/>
-      <c r="BH7" s="36"/>
-    </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BH7" s="35"/>
+      <c r="BI7" s="36"/>
+    </row>
+    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B8" s="32"/>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="35"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="46"/>
       <c r="M8" s="35"/>
       <c r="N8" s="35"/>
       <c r="O8" s="35"/>
@@ -1835,20 +1846,21 @@
       <c r="BE8" s="35"/>
       <c r="BF8" s="35"/>
       <c r="BG8" s="35"/>
-      <c r="BH8" s="36"/>
-    </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BH8" s="35"/>
+      <c r="BI8" s="36"/>
+    </row>
+    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B9" s="32"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="35"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="46"/>
       <c r="M9" s="35"/>
       <c r="N9" s="35"/>
       <c r="O9" s="35"/>
@@ -1896,20 +1908,21 @@
       <c r="BE9" s="35"/>
       <c r="BF9" s="35"/>
       <c r="BG9" s="35"/>
-      <c r="BH9" s="36"/>
-    </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BH9" s="35"/>
+      <c r="BI9" s="36"/>
+    </row>
+    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="35"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="46"/>
       <c r="M10" s="35"/>
       <c r="N10" s="35"/>
       <c r="O10" s="35"/>
@@ -1957,20 +1970,21 @@
       <c r="BE10" s="35"/>
       <c r="BF10" s="35"/>
       <c r="BG10" s="35"/>
-      <c r="BH10" s="36"/>
-    </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BH10" s="35"/>
+      <c r="BI10" s="36"/>
+    </row>
+    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B11" s="32"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="35"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="46"/>
       <c r="M11" s="35"/>
       <c r="N11" s="35"/>
       <c r="O11" s="35"/>
@@ -2018,20 +2032,21 @@
       <c r="BE11" s="35"/>
       <c r="BF11" s="35"/>
       <c r="BG11" s="35"/>
-      <c r="BH11" s="36"/>
-    </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BH11" s="35"/>
+      <c r="BI11" s="36"/>
+    </row>
+    <row r="12" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B12" s="32"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="35"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="46"/>
       <c r="M12" s="35"/>
       <c r="N12" s="35"/>
       <c r="O12" s="35"/>
@@ -2079,20 +2094,21 @@
       <c r="BE12" s="35"/>
       <c r="BF12" s="35"/>
       <c r="BG12" s="35"/>
-      <c r="BH12" s="36"/>
-    </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BH12" s="35"/>
+      <c r="BI12" s="36"/>
+    </row>
+    <row r="13" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B13" s="32"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="35"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="46"/>
       <c r="M13" s="35"/>
       <c r="N13" s="35"/>
       <c r="O13" s="35"/>
@@ -2140,20 +2156,21 @@
       <c r="BE13" s="35"/>
       <c r="BF13" s="35"/>
       <c r="BG13" s="35"/>
-      <c r="BH13" s="36"/>
-    </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BH13" s="35"/>
+      <c r="BI13" s="36"/>
+    </row>
+    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B14" s="32"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="35"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="46"/>
       <c r="M14" s="35"/>
       <c r="N14" s="35"/>
       <c r="O14" s="35"/>
@@ -2201,20 +2218,21 @@
       <c r="BE14" s="35"/>
       <c r="BF14" s="35"/>
       <c r="BG14" s="35"/>
-      <c r="BH14" s="36"/>
-    </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BH14" s="35"/>
+      <c r="BI14" s="36"/>
+    </row>
+    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B15" s="32"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="35"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="46"/>
       <c r="M15" s="35"/>
       <c r="N15" s="35"/>
       <c r="O15" s="35"/>
@@ -2262,20 +2280,21 @@
       <c r="BE15" s="35"/>
       <c r="BF15" s="35"/>
       <c r="BG15" s="35"/>
-      <c r="BH15" s="36"/>
-    </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BH15" s="35"/>
+      <c r="BI15" s="36"/>
+    </row>
+    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B16" s="32"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="35"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="46"/>
       <c r="M16" s="35"/>
       <c r="N16" s="35"/>
       <c r="O16" s="35"/>
@@ -2323,20 +2342,21 @@
       <c r="BE16" s="35"/>
       <c r="BF16" s="35"/>
       <c r="BG16" s="35"/>
-      <c r="BH16" s="36"/>
-    </row>
-    <row r="17" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BH16" s="35"/>
+      <c r="BI16" s="36"/>
+    </row>
+    <row r="17" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B17" s="32"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="35"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="46"/>
       <c r="M17" s="35"/>
       <c r="N17" s="35"/>
       <c r="O17" s="35"/>
@@ -2384,20 +2404,21 @@
       <c r="BE17" s="35"/>
       <c r="BF17" s="35"/>
       <c r="BG17" s="35"/>
-      <c r="BH17" s="36"/>
-    </row>
-    <row r="18" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BH17" s="35"/>
+      <c r="BI17" s="36"/>
+    </row>
+    <row r="18" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B18" s="32"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="35"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="46"/>
       <c r="M18" s="35"/>
       <c r="N18" s="35"/>
       <c r="O18" s="35"/>
@@ -2445,20 +2466,21 @@
       <c r="BE18" s="35"/>
       <c r="BF18" s="35"/>
       <c r="BG18" s="35"/>
-      <c r="BH18" s="36"/>
-    </row>
-    <row r="19" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BH18" s="35"/>
+      <c r="BI18" s="36"/>
+    </row>
+    <row r="19" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B19" s="32"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="35"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="46"/>
       <c r="M19" s="35"/>
       <c r="N19" s="35"/>
       <c r="O19" s="35"/>
@@ -2506,20 +2528,21 @@
       <c r="BE19" s="35"/>
       <c r="BF19" s="35"/>
       <c r="BG19" s="35"/>
-      <c r="BH19" s="36"/>
-    </row>
-    <row r="20" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BH19" s="35"/>
+      <c r="BI19" s="36"/>
+    </row>
+    <row r="20" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B20" s="32"/>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="35"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="46"/>
       <c r="M20" s="35"/>
       <c r="N20" s="35"/>
       <c r="O20" s="35"/>
@@ -2567,20 +2590,21 @@
       <c r="BE20" s="35"/>
       <c r="BF20" s="35"/>
       <c r="BG20" s="35"/>
-      <c r="BH20" s="36"/>
-    </row>
-    <row r="21" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BH20" s="35"/>
+      <c r="BI20" s="36"/>
+    </row>
+    <row r="21" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B21" s="32"/>
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="35"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="46"/>
       <c r="M21" s="35"/>
       <c r="N21" s="35"/>
       <c r="O21" s="35"/>
@@ -2628,20 +2652,21 @@
       <c r="BE21" s="35"/>
       <c r="BF21" s="35"/>
       <c r="BG21" s="35"/>
-      <c r="BH21" s="36"/>
-    </row>
-    <row r="22" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BH21" s="35"/>
+      <c r="BI21" s="36"/>
+    </row>
+    <row r="22" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B22" s="32"/>
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="35"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="46"/>
       <c r="M22" s="35"/>
       <c r="N22" s="35"/>
       <c r="O22" s="35"/>
@@ -2689,20 +2714,21 @@
       <c r="BE22" s="35"/>
       <c r="BF22" s="35"/>
       <c r="BG22" s="35"/>
-      <c r="BH22" s="36"/>
-    </row>
-    <row r="23" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BH22" s="35"/>
+      <c r="BI22" s="36"/>
+    </row>
+    <row r="23" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B23" s="32"/>
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="35"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="46"/>
       <c r="M23" s="35"/>
       <c r="N23" s="35"/>
       <c r="O23" s="35"/>
@@ -2750,20 +2776,21 @@
       <c r="BE23" s="35"/>
       <c r="BF23" s="35"/>
       <c r="BG23" s="35"/>
-      <c r="BH23" s="36"/>
-    </row>
-    <row r="24" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BH23" s="35"/>
+      <c r="BI23" s="36"/>
+    </row>
+    <row r="24" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B24" s="32"/>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="35"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="46"/>
       <c r="M24" s="35"/>
       <c r="N24" s="35"/>
       <c r="O24" s="35"/>
@@ -2811,20 +2838,21 @@
       <c r="BE24" s="35"/>
       <c r="BF24" s="35"/>
       <c r="BG24" s="35"/>
-      <c r="BH24" s="36"/>
-    </row>
-    <row r="25" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BH24" s="35"/>
+      <c r="BI24" s="36"/>
+    </row>
+    <row r="25" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B25" s="32"/>
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="35"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="46"/>
       <c r="M25" s="35"/>
       <c r="N25" s="35"/>
       <c r="O25" s="35"/>
@@ -2872,20 +2900,21 @@
       <c r="BE25" s="35"/>
       <c r="BF25" s="35"/>
       <c r="BG25" s="35"/>
-      <c r="BH25" s="36"/>
-    </row>
-    <row r="26" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BH25" s="35"/>
+      <c r="BI25" s="36"/>
+    </row>
+    <row r="26" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B26" s="32"/>
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="35"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="46"/>
       <c r="M26" s="35"/>
       <c r="N26" s="35"/>
       <c r="O26" s="35"/>
@@ -2933,20 +2962,21 @@
       <c r="BE26" s="35"/>
       <c r="BF26" s="35"/>
       <c r="BG26" s="35"/>
-      <c r="BH26" s="36"/>
-    </row>
-    <row r="27" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BH26" s="35"/>
+      <c r="BI26" s="36"/>
+    </row>
+    <row r="27" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B27" s="32"/>
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="35"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="46"/>
       <c r="M27" s="35"/>
       <c r="N27" s="35"/>
       <c r="O27" s="35"/>
@@ -2994,20 +3024,21 @@
       <c r="BE27" s="35"/>
       <c r="BF27" s="35"/>
       <c r="BG27" s="35"/>
-      <c r="BH27" s="36"/>
-    </row>
-    <row r="28" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BH27" s="35"/>
+      <c r="BI27" s="36"/>
+    </row>
+    <row r="28" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B28" s="32"/>
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="35"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="46"/>
       <c r="M28" s="35"/>
       <c r="N28" s="35"/>
       <c r="O28" s="35"/>
@@ -3055,20 +3086,21 @@
       <c r="BE28" s="35"/>
       <c r="BF28" s="35"/>
       <c r="BG28" s="35"/>
-      <c r="BH28" s="36"/>
-    </row>
-    <row r="29" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BH28" s="35"/>
+      <c r="BI28" s="36"/>
+    </row>
+    <row r="29" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B29" s="32"/>
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="35"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="46"/>
       <c r="M29" s="35"/>
       <c r="N29" s="35"/>
       <c r="O29" s="35"/>
@@ -3116,20 +3148,21 @@
       <c r="BE29" s="35"/>
       <c r="BF29" s="35"/>
       <c r="BG29" s="35"/>
-      <c r="BH29" s="36"/>
-    </row>
-    <row r="30" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BH29" s="35"/>
+      <c r="BI29" s="36"/>
+    </row>
+    <row r="30" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B30" s="32"/>
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="35"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="46"/>
       <c r="M30" s="35"/>
       <c r="N30" s="35"/>
       <c r="O30" s="35"/>
@@ -3177,20 +3210,21 @@
       <c r="BE30" s="35"/>
       <c r="BF30" s="35"/>
       <c r="BG30" s="35"/>
-      <c r="BH30" s="36"/>
-    </row>
-    <row r="31" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BH30" s="35"/>
+      <c r="BI30" s="36"/>
+    </row>
+    <row r="31" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B31" s="32"/>
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="35"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="46"/>
       <c r="M31" s="35"/>
       <c r="N31" s="35"/>
       <c r="O31" s="35"/>
@@ -3238,20 +3272,21 @@
       <c r="BE31" s="35"/>
       <c r="BF31" s="35"/>
       <c r="BG31" s="35"/>
-      <c r="BH31" s="36"/>
-    </row>
-    <row r="32" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BH31" s="35"/>
+      <c r="BI31" s="36"/>
+    </row>
+    <row r="32" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B32" s="32"/>
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="35"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="46"/>
       <c r="M32" s="35"/>
       <c r="N32" s="35"/>
       <c r="O32" s="35"/>
@@ -3299,20 +3334,21 @@
       <c r="BE32" s="35"/>
       <c r="BF32" s="35"/>
       <c r="BG32" s="35"/>
-      <c r="BH32" s="36"/>
-    </row>
-    <row r="33" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BH32" s="35"/>
+      <c r="BI32" s="36"/>
+    </row>
+    <row r="33" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B33" s="32"/>
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="35"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="46"/>
       <c r="M33" s="35"/>
       <c r="N33" s="35"/>
       <c r="O33" s="35"/>
@@ -3360,20 +3396,21 @@
       <c r="BE33" s="35"/>
       <c r="BF33" s="35"/>
       <c r="BG33" s="35"/>
-      <c r="BH33" s="36"/>
-    </row>
-    <row r="34" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BH33" s="35"/>
+      <c r="BI33" s="36"/>
+    </row>
+    <row r="34" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B34" s="32"/>
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="35"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="46"/>
       <c r="M34" s="35"/>
       <c r="N34" s="35"/>
       <c r="O34" s="35"/>
@@ -3421,20 +3458,21 @@
       <c r="BE34" s="35"/>
       <c r="BF34" s="35"/>
       <c r="BG34" s="35"/>
-      <c r="BH34" s="36"/>
-    </row>
-    <row r="35" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BH34" s="35"/>
+      <c r="BI34" s="36"/>
+    </row>
+    <row r="35" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B35" s="32"/>
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="35"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="46"/>
       <c r="M35" s="35"/>
       <c r="N35" s="35"/>
       <c r="O35" s="35"/>
@@ -3482,20 +3520,21 @@
       <c r="BE35" s="35"/>
       <c r="BF35" s="35"/>
       <c r="BG35" s="35"/>
-      <c r="BH35" s="36"/>
-    </row>
-    <row r="36" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BH35" s="35"/>
+      <c r="BI35" s="36"/>
+    </row>
+    <row r="36" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B36" s="32"/>
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="35"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="46"/>
       <c r="M36" s="35"/>
       <c r="N36" s="35"/>
       <c r="O36" s="35"/>
@@ -3543,20 +3582,21 @@
       <c r="BE36" s="35"/>
       <c r="BF36" s="35"/>
       <c r="BG36" s="35"/>
-      <c r="BH36" s="36"/>
-    </row>
-    <row r="37" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BH36" s="35"/>
+      <c r="BI36" s="36"/>
+    </row>
+    <row r="37" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B37" s="32"/>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="35"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="46"/>
       <c r="M37" s="35"/>
       <c r="N37" s="35"/>
       <c r="O37" s="35"/>
@@ -3604,20 +3644,21 @@
       <c r="BE37" s="35"/>
       <c r="BF37" s="35"/>
       <c r="BG37" s="35"/>
-      <c r="BH37" s="36"/>
-    </row>
-    <row r="38" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BH37" s="35"/>
+      <c r="BI37" s="36"/>
+    </row>
+    <row r="38" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B38" s="32"/>
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="35"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="46"/>
       <c r="M38" s="35"/>
       <c r="N38" s="35"/>
       <c r="O38" s="35"/>
@@ -3665,20 +3706,21 @@
       <c r="BE38" s="35"/>
       <c r="BF38" s="35"/>
       <c r="BG38" s="35"/>
-      <c r="BH38" s="36"/>
-    </row>
-    <row r="39" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BH38" s="35"/>
+      <c r="BI38" s="36"/>
+    </row>
+    <row r="39" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B39" s="32"/>
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="35"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="46"/>
       <c r="M39" s="35"/>
       <c r="N39" s="35"/>
       <c r="O39" s="35"/>
@@ -3726,20 +3768,21 @@
       <c r="BE39" s="35"/>
       <c r="BF39" s="35"/>
       <c r="BG39" s="35"/>
-      <c r="BH39" s="36"/>
-    </row>
-    <row r="40" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BH39" s="35"/>
+      <c r="BI39" s="36"/>
+    </row>
+    <row r="40" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B40" s="32"/>
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="35"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="46"/>
       <c r="M40" s="35"/>
       <c r="N40" s="35"/>
       <c r="O40" s="35"/>
@@ -3787,20 +3830,21 @@
       <c r="BE40" s="35"/>
       <c r="BF40" s="35"/>
       <c r="BG40" s="35"/>
-      <c r="BH40" s="36"/>
-    </row>
-    <row r="41" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BH40" s="35"/>
+      <c r="BI40" s="36"/>
+    </row>
+    <row r="41" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B41" s="32"/>
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="35"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="46"/>
       <c r="M41" s="35"/>
       <c r="N41" s="35"/>
       <c r="O41" s="35"/>
@@ -3848,20 +3892,21 @@
       <c r="BE41" s="35"/>
       <c r="BF41" s="35"/>
       <c r="BG41" s="35"/>
-      <c r="BH41" s="36"/>
-    </row>
-    <row r="42" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BH41" s="35"/>
+      <c r="BI41" s="36"/>
+    </row>
+    <row r="42" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B42" s="32"/>
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="35"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="46"/>
       <c r="M42" s="35"/>
       <c r="N42" s="35"/>
       <c r="O42" s="35"/>
@@ -3909,20 +3954,21 @@
       <c r="BE42" s="35"/>
       <c r="BF42" s="35"/>
       <c r="BG42" s="35"/>
-      <c r="BH42" s="36"/>
-    </row>
-    <row r="43" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BH42" s="35"/>
+      <c r="BI42" s="36"/>
+    </row>
+    <row r="43" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B43" s="32"/>
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="35"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="46"/>
       <c r="M43" s="35"/>
       <c r="N43" s="35"/>
       <c r="O43" s="35"/>
@@ -3970,20 +4016,21 @@
       <c r="BE43" s="35"/>
       <c r="BF43" s="35"/>
       <c r="BG43" s="35"/>
-      <c r="BH43" s="36"/>
-    </row>
-    <row r="44" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BH43" s="35"/>
+      <c r="BI43" s="36"/>
+    </row>
+    <row r="44" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B44" s="32"/>
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="35"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="46"/>
       <c r="M44" s="35"/>
       <c r="N44" s="35"/>
       <c r="O44" s="35"/>
@@ -4031,20 +4078,21 @@
       <c r="BE44" s="35"/>
       <c r="BF44" s="35"/>
       <c r="BG44" s="35"/>
-      <c r="BH44" s="36"/>
-    </row>
-    <row r="45" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BH44" s="35"/>
+      <c r="BI44" s="36"/>
+    </row>
+    <row r="45" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B45" s="32"/>
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="35"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="46"/>
       <c r="M45" s="35"/>
       <c r="N45" s="35"/>
       <c r="O45" s="35"/>
@@ -4092,20 +4140,21 @@
       <c r="BE45" s="35"/>
       <c r="BF45" s="35"/>
       <c r="BG45" s="35"/>
-      <c r="BH45" s="36"/>
-    </row>
-    <row r="46" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BH45" s="35"/>
+      <c r="BI45" s="36"/>
+    </row>
+    <row r="46" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B46" s="32"/>
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="32"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="46"/>
-      <c r="L46" s="35"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="46"/>
       <c r="M46" s="35"/>
       <c r="N46" s="35"/>
       <c r="O46" s="35"/>
@@ -4153,20 +4202,21 @@
       <c r="BE46" s="35"/>
       <c r="BF46" s="35"/>
       <c r="BG46" s="35"/>
-      <c r="BH46" s="36"/>
-    </row>
-    <row r="47" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BH46" s="35"/>
+      <c r="BI46" s="36"/>
+    </row>
+    <row r="47" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B47" s="32"/>
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="35"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="46"/>
       <c r="M47" s="35"/>
       <c r="N47" s="35"/>
       <c r="O47" s="35"/>
@@ -4214,20 +4264,21 @@
       <c r="BE47" s="35"/>
       <c r="BF47" s="35"/>
       <c r="BG47" s="35"/>
-      <c r="BH47" s="36"/>
-    </row>
-    <row r="48" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BH47" s="35"/>
+      <c r="BI47" s="36"/>
+    </row>
+    <row r="48" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B48" s="32"/>
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="35"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="46"/>
       <c r="M48" s="35"/>
       <c r="N48" s="35"/>
       <c r="O48" s="35"/>
@@ -4275,20 +4326,21 @@
       <c r="BE48" s="35"/>
       <c r="BF48" s="35"/>
       <c r="BG48" s="35"/>
-      <c r="BH48" s="36"/>
-    </row>
-    <row r="49" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BH48" s="35"/>
+      <c r="BI48" s="36"/>
+    </row>
+    <row r="49" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B49" s="32"/>
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="35"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="46"/>
       <c r="M49" s="35"/>
       <c r="N49" s="35"/>
       <c r="O49" s="35"/>
@@ -4336,20 +4388,21 @@
       <c r="BE49" s="35"/>
       <c r="BF49" s="35"/>
       <c r="BG49" s="35"/>
-      <c r="BH49" s="36"/>
-    </row>
-    <row r="50" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BH49" s="35"/>
+      <c r="BI49" s="36"/>
+    </row>
+    <row r="50" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B50" s="32"/>
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="46"/>
-      <c r="L50" s="35"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="46"/>
       <c r="M50" s="35"/>
       <c r="N50" s="35"/>
       <c r="O50" s="35"/>
@@ -4397,20 +4450,21 @@
       <c r="BE50" s="35"/>
       <c r="BF50" s="35"/>
       <c r="BG50" s="35"/>
-      <c r="BH50" s="36"/>
-    </row>
-    <row r="51" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BH50" s="35"/>
+      <c r="BI50" s="36"/>
+    </row>
+    <row r="51" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B51" s="32"/>
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="35"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="46"/>
       <c r="M51" s="35"/>
       <c r="N51" s="35"/>
       <c r="O51" s="35"/>
@@ -4458,20 +4512,21 @@
       <c r="BE51" s="35"/>
       <c r="BF51" s="35"/>
       <c r="BG51" s="35"/>
-      <c r="BH51" s="36"/>
-    </row>
-    <row r="52" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BH51" s="35"/>
+      <c r="BI51" s="36"/>
+    </row>
+    <row r="52" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B52" s="32"/>
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="46"/>
-      <c r="L52" s="35"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="46"/>
       <c r="M52" s="35"/>
       <c r="N52" s="35"/>
       <c r="O52" s="35"/>
@@ -4519,20 +4574,21 @@
       <c r="BE52" s="35"/>
       <c r="BF52" s="35"/>
       <c r="BG52" s="35"/>
-      <c r="BH52" s="36"/>
-    </row>
-    <row r="53" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BH52" s="35"/>
+      <c r="BI52" s="36"/>
+    </row>
+    <row r="53" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B53" s="32"/>
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="46"/>
-      <c r="L53" s="35"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="46"/>
       <c r="M53" s="35"/>
       <c r="N53" s="35"/>
       <c r="O53" s="35"/>
@@ -4580,20 +4636,21 @@
       <c r="BE53" s="35"/>
       <c r="BF53" s="35"/>
       <c r="BG53" s="35"/>
-      <c r="BH53" s="36"/>
-    </row>
-    <row r="54" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BH53" s="35"/>
+      <c r="BI53" s="36"/>
+    </row>
+    <row r="54" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B54" s="32"/>
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="46"/>
-      <c r="L54" s="35"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="46"/>
       <c r="M54" s="35"/>
       <c r="N54" s="35"/>
       <c r="O54" s="35"/>
@@ -4641,20 +4698,21 @@
       <c r="BE54" s="35"/>
       <c r="BF54" s="35"/>
       <c r="BG54" s="35"/>
-      <c r="BH54" s="36"/>
-    </row>
-    <row r="55" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BH54" s="35"/>
+      <c r="BI54" s="36"/>
+    </row>
+    <row r="55" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B55" s="32"/>
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="46"/>
-      <c r="L55" s="35"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="46"/>
       <c r="M55" s="35"/>
       <c r="N55" s="35"/>
       <c r="O55" s="35"/>
@@ -4702,33 +4760,38 @@
       <c r="BE55" s="35"/>
       <c r="BF55" s="35"/>
       <c r="BG55" s="35"/>
-      <c r="BH55" s="36"/>
+      <c r="BH55" s="35"/>
+      <c r="BI55" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WekLkoJygpAK+ct42JIJ+Nsc1X4AH/g64TiSMUZgDPwyp8bADnW1WPqt3VtcefWM23S2B/NiogskB+pubyS7Ew==" saltValue="YBC23u4ycNs22uEIUJOYzw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="C6pXru6OMIppjYRc5905tZrW4hG/6btoUlYi3+yI24is3lkTf/ytRSVeu/O/bLB1UyPG99f15dBwRV/8+PmVRA==" saltValue="E6PG2xxxvDChDjGb8XgKdw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="5">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="K4:BH4"/>
-    <mergeCell ref="B2:BH3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="L4:BI4"/>
+    <mergeCell ref="B2:BI3"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:BH4 C5:I5" xr:uid="{D8EB4B06-D6F2-4B20-9595-393D150AE984}">
+  <dataValidations count="2">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:BI4 C5 E5:J5" xr:uid="{D8EB4B06-D6F2-4B20-9595-393D150AE984}">
+      <formula1>"&lt;0&gt;0"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5" xr:uid="{CFB95BEC-75AB-4DE3-AFCD-37BEB3CBDC85}">
       <formula1>"&lt;0&gt;0"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" location="fisheries" xr:uid="{ED342AB9-03F0-4794-A5E6-2197300C6DDA}"/>
-    <hyperlink ref="D5" r:id="rId2" location="IOTCareasMain" xr:uid="{63734AA0-E854-4685-861A-F679BE0AC281}"/>
-    <hyperlink ref="E5" r:id="rId3" location="retainReasons" xr:uid="{F3495450-D39C-4DF1-B164-52AAC0FEF034}"/>
-    <hyperlink ref="F5" r:id="rId4" location="types" xr:uid="{2597D7D4-6064-4ED1-8FC4-B173B89E3472}"/>
-    <hyperlink ref="G5" r:id="rId5" location="sourcesRC" xr:uid="{5E959ED6-0253-4C6D-BC73-58B2DECD8EF2}"/>
-    <hyperlink ref="H5" r:id="rId6" location="processingsRC" xr:uid="{5844FCEC-A2EF-428B-9D50-04D8BF8E519B}"/>
-    <hyperlink ref="I5" r:id="rId7" location="coverageTypes" xr:uid="{724F0376-2EAE-4203-9E7A-1897AD6BE90D}"/>
-    <hyperlink ref="K4:BH4" r:id="rId8" location="species" display="Catch by species (live weight equivalent, t)" xr:uid="{6D429590-9E18-4205-80BE-F7414C6B378F}"/>
+    <hyperlink ref="L4:BI4" r:id="rId2" location="species" display="Catch by species (live weight equivalent, t)" xr:uid="{6D429590-9E18-4205-80BE-F7414C6B378F}"/>
+    <hyperlink ref="J5" r:id="rId3" location="coverageTypes" xr:uid="{724F0376-2EAE-4203-9E7A-1897AD6BE90D}"/>
+    <hyperlink ref="I5" r:id="rId4" location="processingsRC" xr:uid="{5844FCEC-A2EF-428B-9D50-04D8BF8E519B}"/>
+    <hyperlink ref="H5" r:id="rId5" location="sourcesRC" xr:uid="{5E959ED6-0253-4C6D-BC73-58B2DECD8EF2}"/>
+    <hyperlink ref="G5" r:id="rId6" location="types" xr:uid="{2597D7D4-6064-4ED1-8FC4-B173B89E3472}"/>
+    <hyperlink ref="F5" r:id="rId7" location="retainReasons" xr:uid="{F3495450-D39C-4DF1-B164-52AAC0FEF034}"/>
+    <hyperlink ref="E5" r:id="rId8" location="IOTCareasMain" xr:uid="{63734AA0-E854-4685-861A-F679BE0AC281}"/>
+    <hyperlink ref="D5" r:id="rId9" location="species" xr:uid="{8EBDCB64-6290-47F7-9EFC-30B2A1D7E646}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/forms/Form-1RC.xlsx
+++ b/forms/Form-1RC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1929B94D-EEF9-4E5C-89E2-B25E5B6B9153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CA196B-5267-4069-B167-098CD1721ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="5O4euoXp3wZfikUhVbwGMfw3acpHwF0QGHqLGhqkSE4QfnoccY7VPEsDDzzEBP5NB49UT+XbcZf1lZQTbDpLFA==" workbookSaltValue="DtEOIJKZ9UKP8oWrD+QpRw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -143,7 +143,7 @@
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +201,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -623,13 +642,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
@@ -663,21 +675,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -720,15 +717,37 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1065,24 +1084,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="60"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="63"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
@@ -1132,15 +1151,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="57"/>
+      <c r="D8" s="51"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="57"/>
+      <c r="G8" s="51"/>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1183,7 +1202,7 @@
       <c r="C12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="47"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -1194,7 +1213,7 @@
       <c r="C13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="47"/>
+      <c r="D13" s="45"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -1243,7 +1262,7 @@
       <c r="C18" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="40"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="6"/>
       <c r="F18" s="9"/>
       <c r="G18" s="18"/>
@@ -1251,10 +1270,10 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="40"/>
+      <c r="D19" s="38"/>
       <c r="E19" s="6"/>
       <c r="F19" s="9"/>
       <c r="G19" s="18"/>
@@ -1262,10 +1281,10 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="40"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -1311,11 +1330,11 @@
     </row>
     <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="56"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="50"/>
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1357,7 +1376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BI55"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="11" ySplit="5" topLeftCell="L6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -1367,167 +1386,167 @@
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="42" customWidth="1"/>
-    <col min="3" max="4" width="15.7109375" style="41" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="41" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="43" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="42" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="41" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="43" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="42" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="43" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="42"/>
-    <col min="13" max="60" width="9.140625" style="41"/>
-    <col min="61" max="61" width="9.140625" style="43"/>
+    <col min="2" max="2" width="11.42578125" style="40" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" style="39" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="39" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="41" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="40" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="39" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="41" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="40" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="41" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="40"/>
+    <col min="13" max="60" width="9.140625" style="39"/>
+    <col min="61" max="61" width="9.140625" style="41"/>
     <col min="62" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="59"/>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="59"/>
-      <c r="AL2" s="59"/>
-      <c r="AM2" s="59"/>
-      <c r="AN2" s="59"/>
-      <c r="AO2" s="59"/>
-      <c r="AP2" s="59"/>
-      <c r="AQ2" s="59"/>
-      <c r="AR2" s="59"/>
-      <c r="AS2" s="59"/>
-      <c r="AT2" s="59"/>
-      <c r="AU2" s="59"/>
-      <c r="AV2" s="59"/>
-      <c r="AW2" s="59"/>
-      <c r="AX2" s="59"/>
-      <c r="AY2" s="59"/>
-      <c r="AZ2" s="59"/>
-      <c r="BA2" s="59"/>
-      <c r="BB2" s="59"/>
-      <c r="BC2" s="59"/>
-      <c r="BD2" s="59"/>
-      <c r="BE2" s="59"/>
-      <c r="BF2" s="59"/>
-      <c r="BG2" s="59"/>
-      <c r="BH2" s="59"/>
-      <c r="BI2" s="60"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="53"/>
+      <c r="AW2" s="53"/>
+      <c r="AX2" s="53"/>
+      <c r="AY2" s="53"/>
+      <c r="AZ2" s="53"/>
+      <c r="BA2" s="53"/>
+      <c r="BB2" s="53"/>
+      <c r="BC2" s="53"/>
+      <c r="BD2" s="53"/>
+      <c r="BE2" s="53"/>
+      <c r="BF2" s="53"/>
+      <c r="BG2" s="53"/>
+      <c r="BH2" s="53"/>
+      <c r="BI2" s="54"/>
     </row>
     <row r="3" spans="1:61" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="62"/>
-      <c r="AH3" s="62"/>
-      <c r="AI3" s="62"/>
-      <c r="AJ3" s="62"/>
-      <c r="AK3" s="62"/>
-      <c r="AL3" s="62"/>
-      <c r="AM3" s="62"/>
-      <c r="AN3" s="62"/>
-      <c r="AO3" s="62"/>
-      <c r="AP3" s="62"/>
-      <c r="AQ3" s="62"/>
-      <c r="AR3" s="62"/>
-      <c r="AS3" s="62"/>
-      <c r="AT3" s="62"/>
-      <c r="AU3" s="62"/>
-      <c r="AV3" s="62"/>
-      <c r="AW3" s="62"/>
-      <c r="AX3" s="62"/>
-      <c r="AY3" s="62"/>
-      <c r="AZ3" s="62"/>
-      <c r="BA3" s="62"/>
-      <c r="BB3" s="62"/>
-      <c r="BC3" s="62"/>
-      <c r="BD3" s="62"/>
-      <c r="BE3" s="62"/>
-      <c r="BF3" s="62"/>
-      <c r="BG3" s="62"/>
-      <c r="BH3" s="62"/>
-      <c r="BI3" s="63"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="56"/>
+      <c r="AG3" s="56"/>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="56"/>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="56"/>
+      <c r="AP3" s="56"/>
+      <c r="AQ3" s="56"/>
+      <c r="AR3" s="56"/>
+      <c r="AS3" s="56"/>
+      <c r="AT3" s="56"/>
+      <c r="AU3" s="56"/>
+      <c r="AV3" s="56"/>
+      <c r="AW3" s="56"/>
+      <c r="AX3" s="56"/>
+      <c r="AY3" s="56"/>
+      <c r="AZ3" s="56"/>
+      <c r="BA3" s="56"/>
+      <c r="BB3" s="56"/>
+      <c r="BC3" s="56"/>
+      <c r="BD3" s="56"/>
+      <c r="BE3" s="56"/>
+      <c r="BF3" s="56"/>
+      <c r="BG3" s="56"/>
+      <c r="BH3" s="56"/>
+      <c r="BI3" s="57"/>
     </row>
     <row r="4" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37"/>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="64" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="64" t="s">
+      <c r="H4" s="59"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="66"/>
+      <c r="K4" s="60"/>
       <c r="L4" s="67" t="s">
         <v>21</v>
       </c>
@@ -1582,37 +1601,37 @@
       <c r="BI4" s="69"/>
     </row>
     <row r="5" spans="1:61" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="51" t="s">
+      <c r="I5" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="39" t="s">
+      <c r="J5" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="53" t="s">
+      <c r="K5" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="44"/>
+      <c r="L5" s="42"/>
       <c r="M5" s="25"/>
       <c r="N5" s="25"/>
       <c r="O5" s="25"/>
@@ -1674,7 +1693,7 @@
       <c r="I6" s="29"/>
       <c r="J6" s="27"/>
       <c r="K6" s="29"/>
-      <c r="L6" s="45"/>
+      <c r="L6" s="43"/>
       <c r="M6" s="30"/>
       <c r="N6" s="30"/>
       <c r="O6" s="30"/>
@@ -1736,7 +1755,7 @@
       <c r="I7" s="34"/>
       <c r="J7" s="32"/>
       <c r="K7" s="34"/>
-      <c r="L7" s="46"/>
+      <c r="L7" s="44"/>
       <c r="M7" s="35"/>
       <c r="N7" s="35"/>
       <c r="O7" s="35"/>
@@ -1798,7 +1817,7 @@
       <c r="I8" s="34"/>
       <c r="J8" s="32"/>
       <c r="K8" s="34"/>
-      <c r="L8" s="46"/>
+      <c r="L8" s="44"/>
       <c r="M8" s="35"/>
       <c r="N8" s="35"/>
       <c r="O8" s="35"/>
@@ -1860,7 +1879,7 @@
       <c r="I9" s="34"/>
       <c r="J9" s="32"/>
       <c r="K9" s="34"/>
-      <c r="L9" s="46"/>
+      <c r="L9" s="44"/>
       <c r="M9" s="35"/>
       <c r="N9" s="35"/>
       <c r="O9" s="35"/>
@@ -1922,7 +1941,7 @@
       <c r="I10" s="34"/>
       <c r="J10" s="32"/>
       <c r="K10" s="34"/>
-      <c r="L10" s="46"/>
+      <c r="L10" s="44"/>
       <c r="M10" s="35"/>
       <c r="N10" s="35"/>
       <c r="O10" s="35"/>
@@ -1984,7 +2003,7 @@
       <c r="I11" s="34"/>
       <c r="J11" s="32"/>
       <c r="K11" s="34"/>
-      <c r="L11" s="46"/>
+      <c r="L11" s="44"/>
       <c r="M11" s="35"/>
       <c r="N11" s="35"/>
       <c r="O11" s="35"/>
@@ -2046,7 +2065,7 @@
       <c r="I12" s="34"/>
       <c r="J12" s="32"/>
       <c r="K12" s="34"/>
-      <c r="L12" s="46"/>
+      <c r="L12" s="44"/>
       <c r="M12" s="35"/>
       <c r="N12" s="35"/>
       <c r="O12" s="35"/>
@@ -2108,7 +2127,7 @@
       <c r="I13" s="34"/>
       <c r="J13" s="32"/>
       <c r="K13" s="34"/>
-      <c r="L13" s="46"/>
+      <c r="L13" s="44"/>
       <c r="M13" s="35"/>
       <c r="N13" s="35"/>
       <c r="O13" s="35"/>
@@ -2170,7 +2189,7 @@
       <c r="I14" s="34"/>
       <c r="J14" s="32"/>
       <c r="K14" s="34"/>
-      <c r="L14" s="46"/>
+      <c r="L14" s="44"/>
       <c r="M14" s="35"/>
       <c r="N14" s="35"/>
       <c r="O14" s="35"/>
@@ -2232,7 +2251,7 @@
       <c r="I15" s="34"/>
       <c r="J15" s="32"/>
       <c r="K15" s="34"/>
-      <c r="L15" s="46"/>
+      <c r="L15" s="44"/>
       <c r="M15" s="35"/>
       <c r="N15" s="35"/>
       <c r="O15" s="35"/>
@@ -2294,7 +2313,7 @@
       <c r="I16" s="34"/>
       <c r="J16" s="32"/>
       <c r="K16" s="34"/>
-      <c r="L16" s="46"/>
+      <c r="L16" s="44"/>
       <c r="M16" s="35"/>
       <c r="N16" s="35"/>
       <c r="O16" s="35"/>
@@ -2356,7 +2375,7 @@
       <c r="I17" s="34"/>
       <c r="J17" s="32"/>
       <c r="K17" s="34"/>
-      <c r="L17" s="46"/>
+      <c r="L17" s="44"/>
       <c r="M17" s="35"/>
       <c r="N17" s="35"/>
       <c r="O17" s="35"/>
@@ -2418,7 +2437,7 @@
       <c r="I18" s="34"/>
       <c r="J18" s="32"/>
       <c r="K18" s="34"/>
-      <c r="L18" s="46"/>
+      <c r="L18" s="44"/>
       <c r="M18" s="35"/>
       <c r="N18" s="35"/>
       <c r="O18" s="35"/>
@@ -2480,7 +2499,7 @@
       <c r="I19" s="34"/>
       <c r="J19" s="32"/>
       <c r="K19" s="34"/>
-      <c r="L19" s="46"/>
+      <c r="L19" s="44"/>
       <c r="M19" s="35"/>
       <c r="N19" s="35"/>
       <c r="O19" s="35"/>
@@ -2542,7 +2561,7 @@
       <c r="I20" s="34"/>
       <c r="J20" s="32"/>
       <c r="K20" s="34"/>
-      <c r="L20" s="46"/>
+      <c r="L20" s="44"/>
       <c r="M20" s="35"/>
       <c r="N20" s="35"/>
       <c r="O20" s="35"/>
@@ -2604,7 +2623,7 @@
       <c r="I21" s="34"/>
       <c r="J21" s="32"/>
       <c r="K21" s="34"/>
-      <c r="L21" s="46"/>
+      <c r="L21" s="44"/>
       <c r="M21" s="35"/>
       <c r="N21" s="35"/>
       <c r="O21" s="35"/>
@@ -2666,7 +2685,7 @@
       <c r="I22" s="34"/>
       <c r="J22" s="32"/>
       <c r="K22" s="34"/>
-      <c r="L22" s="46"/>
+      <c r="L22" s="44"/>
       <c r="M22" s="35"/>
       <c r="N22" s="35"/>
       <c r="O22" s="35"/>
@@ -2728,7 +2747,7 @@
       <c r="I23" s="34"/>
       <c r="J23" s="32"/>
       <c r="K23" s="34"/>
-      <c r="L23" s="46"/>
+      <c r="L23" s="44"/>
       <c r="M23" s="35"/>
       <c r="N23" s="35"/>
       <c r="O23" s="35"/>
@@ -2790,7 +2809,7 @@
       <c r="I24" s="34"/>
       <c r="J24" s="32"/>
       <c r="K24" s="34"/>
-      <c r="L24" s="46"/>
+      <c r="L24" s="44"/>
       <c r="M24" s="35"/>
       <c r="N24" s="35"/>
       <c r="O24" s="35"/>
@@ -2852,7 +2871,7 @@
       <c r="I25" s="34"/>
       <c r="J25" s="32"/>
       <c r="K25" s="34"/>
-      <c r="L25" s="46"/>
+      <c r="L25" s="44"/>
       <c r="M25" s="35"/>
       <c r="N25" s="35"/>
       <c r="O25" s="35"/>
@@ -2914,7 +2933,7 @@
       <c r="I26" s="34"/>
       <c r="J26" s="32"/>
       <c r="K26" s="34"/>
-      <c r="L26" s="46"/>
+      <c r="L26" s="44"/>
       <c r="M26" s="35"/>
       <c r="N26" s="35"/>
       <c r="O26" s="35"/>
@@ -2976,7 +2995,7 @@
       <c r="I27" s="34"/>
       <c r="J27" s="32"/>
       <c r="K27" s="34"/>
-      <c r="L27" s="46"/>
+      <c r="L27" s="44"/>
       <c r="M27" s="35"/>
       <c r="N27" s="35"/>
       <c r="O27" s="35"/>
@@ -3038,7 +3057,7 @@
       <c r="I28" s="34"/>
       <c r="J28" s="32"/>
       <c r="K28" s="34"/>
-      <c r="L28" s="46"/>
+      <c r="L28" s="44"/>
       <c r="M28" s="35"/>
       <c r="N28" s="35"/>
       <c r="O28" s="35"/>
@@ -3100,7 +3119,7 @@
       <c r="I29" s="34"/>
       <c r="J29" s="32"/>
       <c r="K29" s="34"/>
-      <c r="L29" s="46"/>
+      <c r="L29" s="44"/>
       <c r="M29" s="35"/>
       <c r="N29" s="35"/>
       <c r="O29" s="35"/>
@@ -3162,7 +3181,7 @@
       <c r="I30" s="34"/>
       <c r="J30" s="32"/>
       <c r="K30" s="34"/>
-      <c r="L30" s="46"/>
+      <c r="L30" s="44"/>
       <c r="M30" s="35"/>
       <c r="N30" s="35"/>
       <c r="O30" s="35"/>
@@ -3224,7 +3243,7 @@
       <c r="I31" s="34"/>
       <c r="J31" s="32"/>
       <c r="K31" s="34"/>
-      <c r="L31" s="46"/>
+      <c r="L31" s="44"/>
       <c r="M31" s="35"/>
       <c r="N31" s="35"/>
       <c r="O31" s="35"/>
@@ -3286,7 +3305,7 @@
       <c r="I32" s="34"/>
       <c r="J32" s="32"/>
       <c r="K32" s="34"/>
-      <c r="L32" s="46"/>
+      <c r="L32" s="44"/>
       <c r="M32" s="35"/>
       <c r="N32" s="35"/>
       <c r="O32" s="35"/>
@@ -3348,7 +3367,7 @@
       <c r="I33" s="34"/>
       <c r="J33" s="32"/>
       <c r="K33" s="34"/>
-      <c r="L33" s="46"/>
+      <c r="L33" s="44"/>
       <c r="M33" s="35"/>
       <c r="N33" s="35"/>
       <c r="O33" s="35"/>
@@ -3410,7 +3429,7 @@
       <c r="I34" s="34"/>
       <c r="J34" s="32"/>
       <c r="K34" s="34"/>
-      <c r="L34" s="46"/>
+      <c r="L34" s="44"/>
       <c r="M34" s="35"/>
       <c r="N34" s="35"/>
       <c r="O34" s="35"/>
@@ -3472,7 +3491,7 @@
       <c r="I35" s="34"/>
       <c r="J35" s="32"/>
       <c r="K35" s="34"/>
-      <c r="L35" s="46"/>
+      <c r="L35" s="44"/>
       <c r="M35" s="35"/>
       <c r="N35" s="35"/>
       <c r="O35" s="35"/>
@@ -3534,7 +3553,7 @@
       <c r="I36" s="34"/>
       <c r="J36" s="32"/>
       <c r="K36" s="34"/>
-      <c r="L36" s="46"/>
+      <c r="L36" s="44"/>
       <c r="M36" s="35"/>
       <c r="N36" s="35"/>
       <c r="O36" s="35"/>
@@ -3596,7 +3615,7 @@
       <c r="I37" s="34"/>
       <c r="J37" s="32"/>
       <c r="K37" s="34"/>
-      <c r="L37" s="46"/>
+      <c r="L37" s="44"/>
       <c r="M37" s="35"/>
       <c r="N37" s="35"/>
       <c r="O37" s="35"/>
@@ -3658,7 +3677,7 @@
       <c r="I38" s="34"/>
       <c r="J38" s="32"/>
       <c r="K38" s="34"/>
-      <c r="L38" s="46"/>
+      <c r="L38" s="44"/>
       <c r="M38" s="35"/>
       <c r="N38" s="35"/>
       <c r="O38" s="35"/>
@@ -3720,7 +3739,7 @@
       <c r="I39" s="34"/>
       <c r="J39" s="32"/>
       <c r="K39" s="34"/>
-      <c r="L39" s="46"/>
+      <c r="L39" s="44"/>
       <c r="M39" s="35"/>
       <c r="N39" s="35"/>
       <c r="O39" s="35"/>
@@ -3782,7 +3801,7 @@
       <c r="I40" s="34"/>
       <c r="J40" s="32"/>
       <c r="K40" s="34"/>
-      <c r="L40" s="46"/>
+      <c r="L40" s="44"/>
       <c r="M40" s="35"/>
       <c r="N40" s="35"/>
       <c r="O40" s="35"/>
@@ -3844,7 +3863,7 @@
       <c r="I41" s="34"/>
       <c r="J41" s="32"/>
       <c r="K41" s="34"/>
-      <c r="L41" s="46"/>
+      <c r="L41" s="44"/>
       <c r="M41" s="35"/>
       <c r="N41" s="35"/>
       <c r="O41" s="35"/>
@@ -3906,7 +3925,7 @@
       <c r="I42" s="34"/>
       <c r="J42" s="32"/>
       <c r="K42" s="34"/>
-      <c r="L42" s="46"/>
+      <c r="L42" s="44"/>
       <c r="M42" s="35"/>
       <c r="N42" s="35"/>
       <c r="O42" s="35"/>
@@ -3968,7 +3987,7 @@
       <c r="I43" s="34"/>
       <c r="J43" s="32"/>
       <c r="K43" s="34"/>
-      <c r="L43" s="46"/>
+      <c r="L43" s="44"/>
       <c r="M43" s="35"/>
       <c r="N43" s="35"/>
       <c r="O43" s="35"/>
@@ -4030,7 +4049,7 @@
       <c r="I44" s="34"/>
       <c r="J44" s="32"/>
       <c r="K44" s="34"/>
-      <c r="L44" s="46"/>
+      <c r="L44" s="44"/>
       <c r="M44" s="35"/>
       <c r="N44" s="35"/>
       <c r="O44" s="35"/>
@@ -4092,7 +4111,7 @@
       <c r="I45" s="34"/>
       <c r="J45" s="32"/>
       <c r="K45" s="34"/>
-      <c r="L45" s="46"/>
+      <c r="L45" s="44"/>
       <c r="M45" s="35"/>
       <c r="N45" s="35"/>
       <c r="O45" s="35"/>
@@ -4154,7 +4173,7 @@
       <c r="I46" s="34"/>
       <c r="J46" s="32"/>
       <c r="K46" s="34"/>
-      <c r="L46" s="46"/>
+      <c r="L46" s="44"/>
       <c r="M46" s="35"/>
       <c r="N46" s="35"/>
       <c r="O46" s="35"/>
@@ -4216,7 +4235,7 @@
       <c r="I47" s="34"/>
       <c r="J47" s="32"/>
       <c r="K47" s="34"/>
-      <c r="L47" s="46"/>
+      <c r="L47" s="44"/>
       <c r="M47" s="35"/>
       <c r="N47" s="35"/>
       <c r="O47" s="35"/>
@@ -4278,7 +4297,7 @@
       <c r="I48" s="34"/>
       <c r="J48" s="32"/>
       <c r="K48" s="34"/>
-      <c r="L48" s="46"/>
+      <c r="L48" s="44"/>
       <c r="M48" s="35"/>
       <c r="N48" s="35"/>
       <c r="O48" s="35"/>
@@ -4340,7 +4359,7 @@
       <c r="I49" s="34"/>
       <c r="J49" s="32"/>
       <c r="K49" s="34"/>
-      <c r="L49" s="46"/>
+      <c r="L49" s="44"/>
       <c r="M49" s="35"/>
       <c r="N49" s="35"/>
       <c r="O49" s="35"/>
@@ -4402,7 +4421,7 @@
       <c r="I50" s="34"/>
       <c r="J50" s="32"/>
       <c r="K50" s="34"/>
-      <c r="L50" s="46"/>
+      <c r="L50" s="44"/>
       <c r="M50" s="35"/>
       <c r="N50" s="35"/>
       <c r="O50" s="35"/>
@@ -4464,7 +4483,7 @@
       <c r="I51" s="34"/>
       <c r="J51" s="32"/>
       <c r="K51" s="34"/>
-      <c r="L51" s="46"/>
+      <c r="L51" s="44"/>
       <c r="M51" s="35"/>
       <c r="N51" s="35"/>
       <c r="O51" s="35"/>
@@ -4526,7 +4545,7 @@
       <c r="I52" s="34"/>
       <c r="J52" s="32"/>
       <c r="K52" s="34"/>
-      <c r="L52" s="46"/>
+      <c r="L52" s="44"/>
       <c r="M52" s="35"/>
       <c r="N52" s="35"/>
       <c r="O52" s="35"/>
@@ -4588,7 +4607,7 @@
       <c r="I53" s="34"/>
       <c r="J53" s="32"/>
       <c r="K53" s="34"/>
-      <c r="L53" s="46"/>
+      <c r="L53" s="44"/>
       <c r="M53" s="35"/>
       <c r="N53" s="35"/>
       <c r="O53" s="35"/>
@@ -4650,7 +4669,7 @@
       <c r="I54" s="34"/>
       <c r="J54" s="32"/>
       <c r="K54" s="34"/>
-      <c r="L54" s="46"/>
+      <c r="L54" s="44"/>
       <c r="M54" s="35"/>
       <c r="N54" s="35"/>
       <c r="O54" s="35"/>
@@ -4712,7 +4731,7 @@
       <c r="I55" s="34"/>
       <c r="J55" s="32"/>
       <c r="K55" s="34"/>
-      <c r="L55" s="46"/>
+      <c r="L55" s="44"/>
       <c r="M55" s="35"/>
       <c r="N55" s="35"/>
       <c r="O55" s="35"/>
@@ -4764,7 +4783,7 @@
       <c r="BI55" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="C6pXru6OMIppjYRc5905tZrW4hG/6btoUlYi3+yI24is3lkTf/ytRSVeu/O/bLB1UyPG99f15dBwRV/8+PmVRA==" saltValue="E6PG2xxxvDChDjGb8XgKdw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uOAaXsTJNb0+HM42/THhwsx34W6oqGegQTyz7nemIW9tboi1SiGtMMwR8ich4qVXvPXqzEEivBl43OTyFhWcsA==" saltValue="bFBkFItEXHfwqjDl1GXAJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="5">
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="J4:K4"/>
@@ -4772,11 +4791,8 @@
     <mergeCell ref="L4:BI4"/>
     <mergeCell ref="B2:BI3"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:BI4 C5 E5:J5" xr:uid="{D8EB4B06-D6F2-4B20-9595-393D150AE984}">
-      <formula1>"&lt;0&gt;0"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5" xr:uid="{CFB95BEC-75AB-4DE3-AFCD-37BEB3CBDC85}">
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:BI4 C5:J5" xr:uid="{D8EB4B06-D6F2-4B20-9595-393D150AE984}">
       <formula1>"&lt;0&gt;0"</formula1>
     </dataValidation>
   </dataValidations>

--- a/forms/Form-1RC.xlsx
+++ b/forms/Form-1RC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DDB088-60BE-45C5-A97B-16BA6AC32239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A0BD4A-26C3-4C65-B046-6BFDF416CD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="5O4euoXp3wZfikUhVbwGMfw3acpHwF0QGHqLGhqkSE4QfnoccY7VPEsDDzzEBP5NB49UT+XbcZf1lZQTbDpLFA==" workbookSaltValue="DtEOIJKZ9UKP8oWrD+QpRw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -751,6 +751,14 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -803,14 +811,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -818,7 +818,15 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1146,24 +1154,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="60"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="62"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="65"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
@@ -1213,15 +1221,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="57"/>
+      <c r="D8" s="59"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="57"/>
+      <c r="G8" s="59"/>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1392,11 +1400,11 @@
     </row>
     <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="58"/>
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1465,352 +1473,352 @@
   <sheetData>
     <row r="1" spans="1:111" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:111" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="59"/>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="59"/>
-      <c r="AL2" s="59"/>
-      <c r="AM2" s="59"/>
-      <c r="AN2" s="59"/>
-      <c r="AO2" s="59"/>
-      <c r="AP2" s="59"/>
-      <c r="AQ2" s="59"/>
-      <c r="AR2" s="59"/>
-      <c r="AS2" s="59"/>
-      <c r="AT2" s="59"/>
-      <c r="AU2" s="59"/>
-      <c r="AV2" s="59"/>
-      <c r="AW2" s="59"/>
-      <c r="AX2" s="59"/>
-      <c r="AY2" s="59"/>
-      <c r="AZ2" s="59"/>
-      <c r="BA2" s="59"/>
-      <c r="BB2" s="59"/>
-      <c r="BC2" s="59"/>
-      <c r="BD2" s="59"/>
-      <c r="BE2" s="59"/>
-      <c r="BF2" s="59"/>
-      <c r="BG2" s="59"/>
-      <c r="BH2" s="59"/>
-      <c r="BI2" s="59"/>
-      <c r="BJ2" s="59"/>
-      <c r="BK2" s="59"/>
-      <c r="BL2" s="59"/>
-      <c r="BM2" s="59"/>
-      <c r="BN2" s="59"/>
-      <c r="BO2" s="59"/>
-      <c r="BP2" s="59"/>
-      <c r="BQ2" s="59"/>
-      <c r="BR2" s="59"/>
-      <c r="BS2" s="59"/>
-      <c r="BT2" s="59"/>
-      <c r="BU2" s="59"/>
-      <c r="BV2" s="59"/>
-      <c r="BW2" s="59"/>
-      <c r="BX2" s="59"/>
-      <c r="BY2" s="59"/>
-      <c r="BZ2" s="59"/>
-      <c r="CA2" s="59"/>
-      <c r="CB2" s="59"/>
-      <c r="CC2" s="59"/>
-      <c r="CD2" s="59"/>
-      <c r="CE2" s="59"/>
-      <c r="CF2" s="59"/>
-      <c r="CG2" s="59"/>
-      <c r="CH2" s="59"/>
-      <c r="CI2" s="59"/>
-      <c r="CJ2" s="59"/>
-      <c r="CK2" s="59"/>
-      <c r="CL2" s="59"/>
-      <c r="CM2" s="59"/>
-      <c r="CN2" s="59"/>
-      <c r="CO2" s="59"/>
-      <c r="CP2" s="59"/>
-      <c r="CQ2" s="59"/>
-      <c r="CR2" s="59"/>
-      <c r="CS2" s="59"/>
-      <c r="CT2" s="59"/>
-      <c r="CU2" s="59"/>
-      <c r="CV2" s="59"/>
-      <c r="CW2" s="59"/>
-      <c r="CX2" s="59"/>
-      <c r="CY2" s="59"/>
-      <c r="CZ2" s="59"/>
-      <c r="DA2" s="59"/>
-      <c r="DB2" s="59"/>
-      <c r="DC2" s="59"/>
-      <c r="DD2" s="59"/>
-      <c r="DE2" s="59"/>
-      <c r="DF2" s="59"/>
-      <c r="DG2" s="60"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="61"/>
+      <c r="AI2" s="61"/>
+      <c r="AJ2" s="61"/>
+      <c r="AK2" s="61"/>
+      <c r="AL2" s="61"/>
+      <c r="AM2" s="61"/>
+      <c r="AN2" s="61"/>
+      <c r="AO2" s="61"/>
+      <c r="AP2" s="61"/>
+      <c r="AQ2" s="61"/>
+      <c r="AR2" s="61"/>
+      <c r="AS2" s="61"/>
+      <c r="AT2" s="61"/>
+      <c r="AU2" s="61"/>
+      <c r="AV2" s="61"/>
+      <c r="AW2" s="61"/>
+      <c r="AX2" s="61"/>
+      <c r="AY2" s="61"/>
+      <c r="AZ2" s="61"/>
+      <c r="BA2" s="61"/>
+      <c r="BB2" s="61"/>
+      <c r="BC2" s="61"/>
+      <c r="BD2" s="61"/>
+      <c r="BE2" s="61"/>
+      <c r="BF2" s="61"/>
+      <c r="BG2" s="61"/>
+      <c r="BH2" s="61"/>
+      <c r="BI2" s="61"/>
+      <c r="BJ2" s="61"/>
+      <c r="BK2" s="61"/>
+      <c r="BL2" s="61"/>
+      <c r="BM2" s="61"/>
+      <c r="BN2" s="61"/>
+      <c r="BO2" s="61"/>
+      <c r="BP2" s="61"/>
+      <c r="BQ2" s="61"/>
+      <c r="BR2" s="61"/>
+      <c r="BS2" s="61"/>
+      <c r="BT2" s="61"/>
+      <c r="BU2" s="61"/>
+      <c r="BV2" s="61"/>
+      <c r="BW2" s="61"/>
+      <c r="BX2" s="61"/>
+      <c r="BY2" s="61"/>
+      <c r="BZ2" s="61"/>
+      <c r="CA2" s="61"/>
+      <c r="CB2" s="61"/>
+      <c r="CC2" s="61"/>
+      <c r="CD2" s="61"/>
+      <c r="CE2" s="61"/>
+      <c r="CF2" s="61"/>
+      <c r="CG2" s="61"/>
+      <c r="CH2" s="61"/>
+      <c r="CI2" s="61"/>
+      <c r="CJ2" s="61"/>
+      <c r="CK2" s="61"/>
+      <c r="CL2" s="61"/>
+      <c r="CM2" s="61"/>
+      <c r="CN2" s="61"/>
+      <c r="CO2" s="61"/>
+      <c r="CP2" s="61"/>
+      <c r="CQ2" s="61"/>
+      <c r="CR2" s="61"/>
+      <c r="CS2" s="61"/>
+      <c r="CT2" s="61"/>
+      <c r="CU2" s="61"/>
+      <c r="CV2" s="61"/>
+      <c r="CW2" s="61"/>
+      <c r="CX2" s="61"/>
+      <c r="CY2" s="61"/>
+      <c r="CZ2" s="61"/>
+      <c r="DA2" s="61"/>
+      <c r="DB2" s="61"/>
+      <c r="DC2" s="61"/>
+      <c r="DD2" s="61"/>
+      <c r="DE2" s="61"/>
+      <c r="DF2" s="61"/>
+      <c r="DG2" s="62"/>
     </row>
     <row r="3" spans="1:111" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="31"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="62"/>
-      <c r="AH3" s="62"/>
-      <c r="AI3" s="62"/>
-      <c r="AJ3" s="62"/>
-      <c r="AK3" s="62"/>
-      <c r="AL3" s="62"/>
-      <c r="AM3" s="62"/>
-      <c r="AN3" s="62"/>
-      <c r="AO3" s="62"/>
-      <c r="AP3" s="62"/>
-      <c r="AQ3" s="62"/>
-      <c r="AR3" s="62"/>
-      <c r="AS3" s="62"/>
-      <c r="AT3" s="62"/>
-      <c r="AU3" s="62"/>
-      <c r="AV3" s="62"/>
-      <c r="AW3" s="62"/>
-      <c r="AX3" s="62"/>
-      <c r="AY3" s="62"/>
-      <c r="AZ3" s="62"/>
-      <c r="BA3" s="62"/>
-      <c r="BB3" s="62"/>
-      <c r="BC3" s="62"/>
-      <c r="BD3" s="62"/>
-      <c r="BE3" s="62"/>
-      <c r="BF3" s="62"/>
-      <c r="BG3" s="62"/>
-      <c r="BH3" s="62"/>
-      <c r="BI3" s="62"/>
-      <c r="BJ3" s="62"/>
-      <c r="BK3" s="62"/>
-      <c r="BL3" s="62"/>
-      <c r="BM3" s="62"/>
-      <c r="BN3" s="62"/>
-      <c r="BO3" s="62"/>
-      <c r="BP3" s="62"/>
-      <c r="BQ3" s="62"/>
-      <c r="BR3" s="62"/>
-      <c r="BS3" s="62"/>
-      <c r="BT3" s="62"/>
-      <c r="BU3" s="62"/>
-      <c r="BV3" s="62"/>
-      <c r="BW3" s="62"/>
-      <c r="BX3" s="62"/>
-      <c r="BY3" s="62"/>
-      <c r="BZ3" s="62"/>
-      <c r="CA3" s="62"/>
-      <c r="CB3" s="62"/>
-      <c r="CC3" s="62"/>
-      <c r="CD3" s="62"/>
-      <c r="CE3" s="62"/>
-      <c r="CF3" s="62"/>
-      <c r="CG3" s="62"/>
-      <c r="CH3" s="62"/>
-      <c r="CI3" s="62"/>
-      <c r="CJ3" s="62"/>
-      <c r="CK3" s="62"/>
-      <c r="CL3" s="62"/>
-      <c r="CM3" s="62"/>
-      <c r="CN3" s="62"/>
-      <c r="CO3" s="62"/>
-      <c r="CP3" s="62"/>
-      <c r="CQ3" s="62"/>
-      <c r="CR3" s="62"/>
-      <c r="CS3" s="62"/>
-      <c r="CT3" s="62"/>
-      <c r="CU3" s="62"/>
-      <c r="CV3" s="62"/>
-      <c r="CW3" s="62"/>
-      <c r="CX3" s="62"/>
-      <c r="CY3" s="62"/>
-      <c r="CZ3" s="62"/>
-      <c r="DA3" s="62"/>
-      <c r="DB3" s="62"/>
-      <c r="DC3" s="62"/>
-      <c r="DD3" s="62"/>
-      <c r="DE3" s="62"/>
-      <c r="DF3" s="62"/>
-      <c r="DG3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="64"/>
+      <c r="AK3" s="64"/>
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="64"/>
+      <c r="AO3" s="64"/>
+      <c r="AP3" s="64"/>
+      <c r="AQ3" s="64"/>
+      <c r="AR3" s="64"/>
+      <c r="AS3" s="64"/>
+      <c r="AT3" s="64"/>
+      <c r="AU3" s="64"/>
+      <c r="AV3" s="64"/>
+      <c r="AW3" s="64"/>
+      <c r="AX3" s="64"/>
+      <c r="AY3" s="64"/>
+      <c r="AZ3" s="64"/>
+      <c r="BA3" s="64"/>
+      <c r="BB3" s="64"/>
+      <c r="BC3" s="64"/>
+      <c r="BD3" s="64"/>
+      <c r="BE3" s="64"/>
+      <c r="BF3" s="64"/>
+      <c r="BG3" s="64"/>
+      <c r="BH3" s="64"/>
+      <c r="BI3" s="64"/>
+      <c r="BJ3" s="64"/>
+      <c r="BK3" s="64"/>
+      <c r="BL3" s="64"/>
+      <c r="BM3" s="64"/>
+      <c r="BN3" s="64"/>
+      <c r="BO3" s="64"/>
+      <c r="BP3" s="64"/>
+      <c r="BQ3" s="64"/>
+      <c r="BR3" s="64"/>
+      <c r="BS3" s="64"/>
+      <c r="BT3" s="64"/>
+      <c r="BU3" s="64"/>
+      <c r="BV3" s="64"/>
+      <c r="BW3" s="64"/>
+      <c r="BX3" s="64"/>
+      <c r="BY3" s="64"/>
+      <c r="BZ3" s="64"/>
+      <c r="CA3" s="64"/>
+      <c r="CB3" s="64"/>
+      <c r="CC3" s="64"/>
+      <c r="CD3" s="64"/>
+      <c r="CE3" s="64"/>
+      <c r="CF3" s="64"/>
+      <c r="CG3" s="64"/>
+      <c r="CH3" s="64"/>
+      <c r="CI3" s="64"/>
+      <c r="CJ3" s="64"/>
+      <c r="CK3" s="64"/>
+      <c r="CL3" s="64"/>
+      <c r="CM3" s="64"/>
+      <c r="CN3" s="64"/>
+      <c r="CO3" s="64"/>
+      <c r="CP3" s="64"/>
+      <c r="CQ3" s="64"/>
+      <c r="CR3" s="64"/>
+      <c r="CS3" s="64"/>
+      <c r="CT3" s="64"/>
+      <c r="CU3" s="64"/>
+      <c r="CV3" s="64"/>
+      <c r="CW3" s="64"/>
+      <c r="CX3" s="64"/>
+      <c r="CY3" s="64"/>
+      <c r="CZ3" s="64"/>
+      <c r="DA3" s="64"/>
+      <c r="DB3" s="64"/>
+      <c r="DC3" s="64"/>
+      <c r="DD3" s="64"/>
+      <c r="DE3" s="64"/>
+      <c r="DF3" s="64"/>
+      <c r="DG3" s="65"/>
     </row>
     <row r="4" spans="1:111" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31"/>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="64" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="64" t="s">
+      <c r="H4" s="67"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="67" t="s">
+      <c r="K4" s="68"/>
+      <c r="L4" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="68"/>
-      <c r="V4" s="68"/>
-      <c r="W4" s="68"/>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="68"/>
-      <c r="Z4" s="68"/>
-      <c r="AA4" s="68"/>
-      <c r="AB4" s="68"/>
-      <c r="AC4" s="68"/>
-      <c r="AD4" s="68"/>
-      <c r="AE4" s="68"/>
-      <c r="AF4" s="68"/>
-      <c r="AG4" s="68"/>
-      <c r="AH4" s="68"/>
-      <c r="AI4" s="68"/>
-      <c r="AJ4" s="68"/>
-      <c r="AK4" s="68"/>
-      <c r="AL4" s="68"/>
-      <c r="AM4" s="68"/>
-      <c r="AN4" s="68"/>
-      <c r="AO4" s="68"/>
-      <c r="AP4" s="68"/>
-      <c r="AQ4" s="68"/>
-      <c r="AR4" s="68"/>
-      <c r="AS4" s="68"/>
-      <c r="AT4" s="68"/>
-      <c r="AU4" s="68"/>
-      <c r="AV4" s="68"/>
-      <c r="AW4" s="68"/>
-      <c r="AX4" s="68"/>
-      <c r="AY4" s="68"/>
-      <c r="AZ4" s="68"/>
-      <c r="BA4" s="68"/>
-      <c r="BB4" s="68"/>
-      <c r="BC4" s="68"/>
-      <c r="BD4" s="68"/>
-      <c r="BE4" s="68"/>
-      <c r="BF4" s="68"/>
-      <c r="BG4" s="68"/>
-      <c r="BH4" s="68"/>
-      <c r="BI4" s="68"/>
-      <c r="BJ4" s="68"/>
-      <c r="BK4" s="68"/>
-      <c r="BL4" s="68"/>
-      <c r="BM4" s="68"/>
-      <c r="BN4" s="68"/>
-      <c r="BO4" s="68"/>
-      <c r="BP4" s="68"/>
-      <c r="BQ4" s="68"/>
-      <c r="BR4" s="68"/>
-      <c r="BS4" s="68"/>
-      <c r="BT4" s="68"/>
-      <c r="BU4" s="68"/>
-      <c r="BV4" s="68"/>
-      <c r="BW4" s="68"/>
-      <c r="BX4" s="68"/>
-      <c r="BY4" s="68"/>
-      <c r="BZ4" s="68"/>
-      <c r="CA4" s="68"/>
-      <c r="CB4" s="68"/>
-      <c r="CC4" s="68"/>
-      <c r="CD4" s="68"/>
-      <c r="CE4" s="68"/>
-      <c r="CF4" s="68"/>
-      <c r="CG4" s="68"/>
-      <c r="CH4" s="68"/>
-      <c r="CI4" s="68"/>
-      <c r="CJ4" s="68"/>
-      <c r="CK4" s="68"/>
-      <c r="CL4" s="68"/>
-      <c r="CM4" s="68"/>
-      <c r="CN4" s="68"/>
-      <c r="CO4" s="68"/>
-      <c r="CP4" s="68"/>
-      <c r="CQ4" s="68"/>
-      <c r="CR4" s="68"/>
-      <c r="CS4" s="68"/>
-      <c r="CT4" s="68"/>
-      <c r="CU4" s="68"/>
-      <c r="CV4" s="68"/>
-      <c r="CW4" s="68"/>
-      <c r="CX4" s="68"/>
-      <c r="CY4" s="68"/>
-      <c r="CZ4" s="68"/>
-      <c r="DA4" s="68"/>
-      <c r="DB4" s="68"/>
-      <c r="DC4" s="68"/>
-      <c r="DD4" s="68"/>
-      <c r="DE4" s="68"/>
-      <c r="DF4" s="68"/>
-      <c r="DG4" s="69"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="70"/>
+      <c r="W4" s="70"/>
+      <c r="X4" s="70"/>
+      <c r="Y4" s="70"/>
+      <c r="Z4" s="70"/>
+      <c r="AA4" s="70"/>
+      <c r="AB4" s="70"/>
+      <c r="AC4" s="70"/>
+      <c r="AD4" s="70"/>
+      <c r="AE4" s="70"/>
+      <c r="AF4" s="70"/>
+      <c r="AG4" s="70"/>
+      <c r="AH4" s="70"/>
+      <c r="AI4" s="70"/>
+      <c r="AJ4" s="70"/>
+      <c r="AK4" s="70"/>
+      <c r="AL4" s="70"/>
+      <c r="AM4" s="70"/>
+      <c r="AN4" s="70"/>
+      <c r="AO4" s="70"/>
+      <c r="AP4" s="70"/>
+      <c r="AQ4" s="70"/>
+      <c r="AR4" s="70"/>
+      <c r="AS4" s="70"/>
+      <c r="AT4" s="70"/>
+      <c r="AU4" s="70"/>
+      <c r="AV4" s="70"/>
+      <c r="AW4" s="70"/>
+      <c r="AX4" s="70"/>
+      <c r="AY4" s="70"/>
+      <c r="AZ4" s="70"/>
+      <c r="BA4" s="70"/>
+      <c r="BB4" s="70"/>
+      <c r="BC4" s="70"/>
+      <c r="BD4" s="70"/>
+      <c r="BE4" s="70"/>
+      <c r="BF4" s="70"/>
+      <c r="BG4" s="70"/>
+      <c r="BH4" s="70"/>
+      <c r="BI4" s="70"/>
+      <c r="BJ4" s="70"/>
+      <c r="BK4" s="70"/>
+      <c r="BL4" s="70"/>
+      <c r="BM4" s="70"/>
+      <c r="BN4" s="70"/>
+      <c r="BO4" s="70"/>
+      <c r="BP4" s="70"/>
+      <c r="BQ4" s="70"/>
+      <c r="BR4" s="70"/>
+      <c r="BS4" s="70"/>
+      <c r="BT4" s="70"/>
+      <c r="BU4" s="70"/>
+      <c r="BV4" s="70"/>
+      <c r="BW4" s="70"/>
+      <c r="BX4" s="70"/>
+      <c r="BY4" s="70"/>
+      <c r="BZ4" s="70"/>
+      <c r="CA4" s="70"/>
+      <c r="CB4" s="70"/>
+      <c r="CC4" s="70"/>
+      <c r="CD4" s="70"/>
+      <c r="CE4" s="70"/>
+      <c r="CF4" s="70"/>
+      <c r="CG4" s="70"/>
+      <c r="CH4" s="70"/>
+      <c r="CI4" s="70"/>
+      <c r="CJ4" s="70"/>
+      <c r="CK4" s="70"/>
+      <c r="CL4" s="70"/>
+      <c r="CM4" s="70"/>
+      <c r="CN4" s="70"/>
+      <c r="CO4" s="70"/>
+      <c r="CP4" s="70"/>
+      <c r="CQ4" s="70"/>
+      <c r="CR4" s="70"/>
+      <c r="CS4" s="70"/>
+      <c r="CT4" s="70"/>
+      <c r="CU4" s="70"/>
+      <c r="CV4" s="70"/>
+      <c r="CW4" s="70"/>
+      <c r="CX4" s="70"/>
+      <c r="CY4" s="70"/>
+      <c r="CZ4" s="70"/>
+      <c r="DA4" s="70"/>
+      <c r="DB4" s="70"/>
+      <c r="DC4" s="70"/>
+      <c r="DD4" s="70"/>
+      <c r="DE4" s="70"/>
+      <c r="DF4" s="70"/>
+      <c r="DG4" s="71"/>
     </row>
     <row r="5" spans="1:111" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="36" t="s">
@@ -1954,7 +1962,7 @@
       <c r="H6" s="26"/>
       <c r="I6" s="27"/>
       <c r="J6" s="25"/>
-      <c r="K6" s="70"/>
+      <c r="K6" s="54"/>
       <c r="L6" s="48"/>
       <c r="M6" s="49"/>
       <c r="N6" s="49"/>
@@ -2066,7 +2074,7 @@
       <c r="H7" s="29"/>
       <c r="I7" s="30"/>
       <c r="J7" s="28"/>
-      <c r="K7" s="71"/>
+      <c r="K7" s="55"/>
     </row>
     <row r="8" spans="1:111" x14ac:dyDescent="0.25">
       <c r="B8" s="28"/>
@@ -2078,7 +2086,7 @@
       <c r="H8" s="29"/>
       <c r="I8" s="30"/>
       <c r="J8" s="28"/>
-      <c r="K8" s="71"/>
+      <c r="K8" s="55"/>
     </row>
     <row r="9" spans="1:111" x14ac:dyDescent="0.25">
       <c r="B9" s="28"/>
@@ -2090,7 +2098,7 @@
       <c r="H9" s="29"/>
       <c r="I9" s="30"/>
       <c r="J9" s="28"/>
-      <c r="K9" s="71"/>
+      <c r="K9" s="55"/>
     </row>
     <row r="10" spans="1:111" x14ac:dyDescent="0.25">
       <c r="B10" s="28"/>
@@ -2102,7 +2110,7 @@
       <c r="H10" s="29"/>
       <c r="I10" s="30"/>
       <c r="J10" s="28"/>
-      <c r="K10" s="71"/>
+      <c r="K10" s="55"/>
     </row>
     <row r="11" spans="1:111" x14ac:dyDescent="0.25">
       <c r="B11" s="28"/>
@@ -2114,7 +2122,7 @@
       <c r="H11" s="29"/>
       <c r="I11" s="30"/>
       <c r="J11" s="28"/>
-      <c r="K11" s="71"/>
+      <c r="K11" s="55"/>
     </row>
     <row r="12" spans="1:111" x14ac:dyDescent="0.25">
       <c r="B12" s="28"/>
@@ -2126,7 +2134,7 @@
       <c r="H12" s="29"/>
       <c r="I12" s="30"/>
       <c r="J12" s="28"/>
-      <c r="K12" s="71"/>
+      <c r="K12" s="55"/>
     </row>
     <row r="13" spans="1:111" x14ac:dyDescent="0.25">
       <c r="B13" s="28"/>
@@ -2138,7 +2146,7 @@
       <c r="H13" s="29"/>
       <c r="I13" s="30"/>
       <c r="J13" s="28"/>
-      <c r="K13" s="71"/>
+      <c r="K13" s="55"/>
     </row>
     <row r="14" spans="1:111" x14ac:dyDescent="0.25">
       <c r="B14" s="28"/>
@@ -2150,7 +2158,7 @@
       <c r="H14" s="29"/>
       <c r="I14" s="30"/>
       <c r="J14" s="28"/>
-      <c r="K14" s="71"/>
+      <c r="K14" s="55"/>
     </row>
     <row r="15" spans="1:111" x14ac:dyDescent="0.25">
       <c r="B15" s="28"/>
@@ -2162,7 +2170,7 @@
       <c r="H15" s="29"/>
       <c r="I15" s="30"/>
       <c r="J15" s="28"/>
-      <c r="K15" s="71"/>
+      <c r="K15" s="55"/>
     </row>
     <row r="16" spans="1:111" x14ac:dyDescent="0.25">
       <c r="B16" s="28"/>
@@ -2174,7 +2182,7 @@
       <c r="H16" s="29"/>
       <c r="I16" s="30"/>
       <c r="J16" s="28"/>
-      <c r="K16" s="71"/>
+      <c r="K16" s="55"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="28"/>
@@ -2186,7 +2194,7 @@
       <c r="H17" s="29"/>
       <c r="I17" s="30"/>
       <c r="J17" s="28"/>
-      <c r="K17" s="71"/>
+      <c r="K17" s="55"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="28"/>
@@ -2198,7 +2206,7 @@
       <c r="H18" s="29"/>
       <c r="I18" s="30"/>
       <c r="J18" s="28"/>
-      <c r="K18" s="71"/>
+      <c r="K18" s="55"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="28"/>
@@ -2210,7 +2218,7 @@
       <c r="H19" s="29"/>
       <c r="I19" s="30"/>
       <c r="J19" s="28"/>
-      <c r="K19" s="71"/>
+      <c r="K19" s="55"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="28"/>
@@ -2222,7 +2230,7 @@
       <c r="H20" s="29"/>
       <c r="I20" s="30"/>
       <c r="J20" s="28"/>
-      <c r="K20" s="71"/>
+      <c r="K20" s="55"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="28"/>
@@ -2234,7 +2242,7 @@
       <c r="H21" s="29"/>
       <c r="I21" s="30"/>
       <c r="J21" s="28"/>
-      <c r="K21" s="71"/>
+      <c r="K21" s="55"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="28"/>
@@ -2246,7 +2254,7 @@
       <c r="H22" s="29"/>
       <c r="I22" s="30"/>
       <c r="J22" s="28"/>
-      <c r="K22" s="71"/>
+      <c r="K22" s="55"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="28"/>
@@ -2258,7 +2266,7 @@
       <c r="H23" s="29"/>
       <c r="I23" s="30"/>
       <c r="J23" s="28"/>
-      <c r="K23" s="71"/>
+      <c r="K23" s="55"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="28"/>
@@ -2270,7 +2278,7 @@
       <c r="H24" s="29"/>
       <c r="I24" s="30"/>
       <c r="J24" s="28"/>
-      <c r="K24" s="71"/>
+      <c r="K24" s="55"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="28"/>
@@ -2282,7 +2290,7 @@
       <c r="H25" s="29"/>
       <c r="I25" s="30"/>
       <c r="J25" s="28"/>
-      <c r="K25" s="71"/>
+      <c r="K25" s="55"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="28"/>
@@ -2294,7 +2302,7 @@
       <c r="H26" s="29"/>
       <c r="I26" s="30"/>
       <c r="J26" s="28"/>
-      <c r="K26" s="71"/>
+      <c r="K26" s="55"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="28"/>
@@ -2306,7 +2314,7 @@
       <c r="H27" s="29"/>
       <c r="I27" s="30"/>
       <c r="J27" s="28"/>
-      <c r="K27" s="71"/>
+      <c r="K27" s="55"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="28"/>
@@ -2318,7 +2326,7 @@
       <c r="H28" s="29"/>
       <c r="I28" s="30"/>
       <c r="J28" s="28"/>
-      <c r="K28" s="71"/>
+      <c r="K28" s="55"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="28"/>
@@ -2330,7 +2338,7 @@
       <c r="H29" s="29"/>
       <c r="I29" s="30"/>
       <c r="J29" s="28"/>
-      <c r="K29" s="71"/>
+      <c r="K29" s="55"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="28"/>
@@ -2342,7 +2350,7 @@
       <c r="H30" s="29"/>
       <c r="I30" s="30"/>
       <c r="J30" s="28"/>
-      <c r="K30" s="71"/>
+      <c r="K30" s="55"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="28"/>
@@ -2354,7 +2362,7 @@
       <c r="H31" s="29"/>
       <c r="I31" s="30"/>
       <c r="J31" s="28"/>
-      <c r="K31" s="71"/>
+      <c r="K31" s="55"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="28"/>
@@ -2366,7 +2374,7 @@
       <c r="H32" s="29"/>
       <c r="I32" s="30"/>
       <c r="J32" s="28"/>
-      <c r="K32" s="71"/>
+      <c r="K32" s="55"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="28"/>
@@ -2378,7 +2386,7 @@
       <c r="H33" s="29"/>
       <c r="I33" s="30"/>
       <c r="J33" s="28"/>
-      <c r="K33" s="71"/>
+      <c r="K33" s="55"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="28"/>
@@ -2390,7 +2398,7 @@
       <c r="H34" s="29"/>
       <c r="I34" s="30"/>
       <c r="J34" s="28"/>
-      <c r="K34" s="71"/>
+      <c r="K34" s="55"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="28"/>
@@ -2402,7 +2410,7 @@
       <c r="H35" s="29"/>
       <c r="I35" s="30"/>
       <c r="J35" s="28"/>
-      <c r="K35" s="71"/>
+      <c r="K35" s="55"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="28"/>
@@ -2414,7 +2422,7 @@
       <c r="H36" s="29"/>
       <c r="I36" s="30"/>
       <c r="J36" s="28"/>
-      <c r="K36" s="71"/>
+      <c r="K36" s="55"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="28"/>
@@ -2426,7 +2434,7 @@
       <c r="H37" s="29"/>
       <c r="I37" s="30"/>
       <c r="J37" s="28"/>
-      <c r="K37" s="71"/>
+      <c r="K37" s="55"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="28"/>
@@ -2438,7 +2446,7 @@
       <c r="H38" s="29"/>
       <c r="I38" s="30"/>
       <c r="J38" s="28"/>
-      <c r="K38" s="71"/>
+      <c r="K38" s="55"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="28"/>
@@ -2450,7 +2458,7 @@
       <c r="H39" s="29"/>
       <c r="I39" s="30"/>
       <c r="J39" s="28"/>
-      <c r="K39" s="71"/>
+      <c r="K39" s="55"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="28"/>
@@ -2462,7 +2470,7 @@
       <c r="H40" s="29"/>
       <c r="I40" s="30"/>
       <c r="J40" s="28"/>
-      <c r="K40" s="71"/>
+      <c r="K40" s="55"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="28"/>
@@ -2474,7 +2482,7 @@
       <c r="H41" s="29"/>
       <c r="I41" s="30"/>
       <c r="J41" s="28"/>
-      <c r="K41" s="71"/>
+      <c r="K41" s="55"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="28"/>
@@ -2486,7 +2494,7 @@
       <c r="H42" s="29"/>
       <c r="I42" s="30"/>
       <c r="J42" s="28"/>
-      <c r="K42" s="71"/>
+      <c r="K42" s="55"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="28"/>
@@ -2498,7 +2506,7 @@
       <c r="H43" s="29"/>
       <c r="I43" s="30"/>
       <c r="J43" s="28"/>
-      <c r="K43" s="71"/>
+      <c r="K43" s="55"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="28"/>
@@ -2510,7 +2518,7 @@
       <c r="H44" s="29"/>
       <c r="I44" s="30"/>
       <c r="J44" s="28"/>
-      <c r="K44" s="71"/>
+      <c r="K44" s="55"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="28"/>
@@ -2522,7 +2530,7 @@
       <c r="H45" s="29"/>
       <c r="I45" s="30"/>
       <c r="J45" s="28"/>
-      <c r="K45" s="71"/>
+      <c r="K45" s="55"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="28"/>
@@ -2534,7 +2542,7 @@
       <c r="H46" s="29"/>
       <c r="I46" s="30"/>
       <c r="J46" s="28"/>
-      <c r="K46" s="71"/>
+      <c r="K46" s="55"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="28"/>
@@ -2546,7 +2554,7 @@
       <c r="H47" s="29"/>
       <c r="I47" s="30"/>
       <c r="J47" s="28"/>
-      <c r="K47" s="71"/>
+      <c r="K47" s="55"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="28"/>
@@ -2558,7 +2566,7 @@
       <c r="H48" s="29"/>
       <c r="I48" s="30"/>
       <c r="J48" s="28"/>
-      <c r="K48" s="71"/>
+      <c r="K48" s="55"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" s="28"/>
@@ -2570,7 +2578,7 @@
       <c r="H49" s="29"/>
       <c r="I49" s="30"/>
       <c r="J49" s="28"/>
-      <c r="K49" s="71"/>
+      <c r="K49" s="55"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="28"/>
@@ -2582,7 +2590,7 @@
       <c r="H50" s="29"/>
       <c r="I50" s="30"/>
       <c r="J50" s="28"/>
-      <c r="K50" s="71"/>
+      <c r="K50" s="55"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51" s="28"/>
@@ -2594,7 +2602,7 @@
       <c r="H51" s="29"/>
       <c r="I51" s="30"/>
       <c r="J51" s="28"/>
-      <c r="K51" s="71"/>
+      <c r="K51" s="55"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" s="28"/>
@@ -2606,7 +2614,7 @@
       <c r="H52" s="29"/>
       <c r="I52" s="30"/>
       <c r="J52" s="28"/>
-      <c r="K52" s="71"/>
+      <c r="K52" s="55"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53" s="28"/>
@@ -2618,7 +2626,7 @@
       <c r="H53" s="29"/>
       <c r="I53" s="30"/>
       <c r="J53" s="28"/>
-      <c r="K53" s="71"/>
+      <c r="K53" s="55"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54" s="28"/>
@@ -2630,7 +2638,7 @@
       <c r="H54" s="29"/>
       <c r="I54" s="30"/>
       <c r="J54" s="28"/>
-      <c r="K54" s="71"/>
+      <c r="K54" s="55"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" s="28"/>
@@ -2642,10 +2650,10 @@
       <c r="H55" s="29"/>
       <c r="I55" s="30"/>
       <c r="J55" s="28"/>
-      <c r="K55" s="71"/>
+      <c r="K55" s="55"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ohP2hShxqHP3memSSVEFLEsaAvPnSwEHpmNodiZX/llniQbolrK/cApTcSc0F7ePyd/FsT4LXaz1FHfnSF+F8g==" saltValue="JO0q1HMwQA6XpPt+HDBIsA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4YamJsHDYbPg7frxG77T0oPG1G9DIZESzB0A6GP9EPWUqRaw2V7gIQzffl2DYKlThR1LIRIDZ/B3/JC5ZeCRvA==" saltValue="v2MWOiGx5Mj6HlWH0aNhLA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="5">
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="J4:K4"/>
@@ -2653,6 +2661,11 @@
     <mergeCell ref="L4:DG4"/>
     <mergeCell ref="B2:DG3"/>
   </mergeCells>
+  <conditionalFormatting sqref="B6:DG1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>B6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:J5 L4:DG4" xr:uid="{D8EB4B06-D6F2-4B20-9595-393D150AE984}">
       <formula1>"&lt;0&gt;0"</formula1>

--- a/forms/Form-1RC.xlsx
+++ b/forms/Form-1RC.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A0BD4A-26C3-4C65-B046-6BFDF416CD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C91B0F-8B85-44E9-940A-7EC32980ABEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="5O4euoXp3wZfikUhVbwGMfw3acpHwF0QGHqLGhqkSE4QfnoccY7VPEsDDzzEBP5NB49UT+XbcZf1lZQTbDpLFA==" workbookSaltValue="DtEOIJKZ9UKP8oWrD+QpRw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -1446,7 +1446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:DG55"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="11" ySplit="5" topLeftCell="L6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>

--- a/forms/Form-1RC.xlsx
+++ b/forms/Form-1RC.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C91B0F-8B85-44E9-940A-7EC32980ABEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7280D35-48F5-450E-96C8-B59C41486F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="5O4euoXp3wZfikUhVbwGMfw3acpHwF0QGHqLGhqkSE4QfnoccY7VPEsDDzzEBP5NB49UT+XbcZf1lZQTbDpLFA==" workbookSaltValue="DtEOIJKZ9UKP8oWrD+QpRw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -1138,7 +1138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
